--- a/data/trans_orig/IP2002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F5CC840-4BE8-4A4A-BECD-04E186B63BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E21831-293C-45F8-86BA-569881CCBDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A319523F-98D3-4834-AE29-1B1236C1F13E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C3A2CA7A-53EC-41A2-AB61-E78CB4288089}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -107,6 +107,63 @@
     <t>0,35%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -158,63 +215,6 @@
     <t>15,75%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
     <t>92,72%</t>
   </si>
   <si>
@@ -284,6 +284,60 @@
     <t>0,36%</t>
   </si>
   <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
     <t>89,32%</t>
   </si>
   <si>
@@ -332,60 +386,6 @@
     <t>12,4%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
     <t>93,07%</t>
   </si>
   <si>
@@ -473,6 +473,60 @@
     <t>1,0%</t>
   </si>
   <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
     <t>90,22%</t>
   </si>
   <si>
@@ -527,60 +581,6 @@
     <t>11,7%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
     <t>95,19%</t>
   </si>
   <si>
@@ -668,6 +668,60 @@
     <t>2,32%</t>
   </si>
   <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
     <t>91,17%</t>
   </si>
   <si>
@@ -708,60 +762,6 @@
   </si>
   <si>
     <t>8,42%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
   </si>
   <si>
     <t>95,13%</t>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53FEC25-175A-4A5A-B5F2-344472907301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F370A4A5-F5C6-4A1F-B1FB-CDD7C6A10411}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1480,10 +1480,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="D7" s="7">
-        <v>243040</v>
+        <v>205215</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1495,10 +1495,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="I7" s="7">
-        <v>229902</v>
+        <v>194526</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1510,19 +1510,19 @@
         <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>706</v>
+        <v>599</v>
       </c>
       <c r="N7" s="7">
-        <v>472942</v>
+        <v>399741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,49 +1531,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>37778</v>
+        <v>12101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10120</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7">
         <v>33</v>
       </c>
-      <c r="H8" s="7">
-        <v>53</v>
-      </c>
-      <c r="I8" s="7">
-        <v>35701</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="7">
-        <v>109</v>
-      </c>
       <c r="N8" s="7">
-        <v>73479</v>
+        <v>22220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,10 +1582,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="D9" s="7">
-        <v>280818</v>
+        <v>217316</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1597,10 +1597,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>204646</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1612,10 +1612,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>815</v>
+        <v>632</v>
       </c>
       <c r="N9" s="7">
-        <v>546421</v>
+        <v>421961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1629,55 +1629,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="D10" s="7">
-        <v>205215</v>
+        <v>243040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>341</v>
+      </c>
+      <c r="I10" s="7">
+        <v>229902</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="7">
+        <v>706</v>
+      </c>
+      <c r="N10" s="7">
+        <v>472942</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="7">
-        <v>288</v>
-      </c>
-      <c r="I10" s="7">
-        <v>194526</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="7">
-        <v>599</v>
-      </c>
-      <c r="N10" s="7">
-        <v>399741</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,43 +1686,43 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>12101</v>
+        <v>37778</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7">
+        <v>35701</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="7">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7">
+        <v>73479</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10120</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>22220</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>56</v>
@@ -1737,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="D12" s="7">
-        <v>217316</v>
+        <v>280818</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1752,10 +1752,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>204646</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1767,10 +1767,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>632</v>
+        <v>815</v>
       </c>
       <c r="N12" s="7">
-        <v>421961</v>
+        <v>546421</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1953,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C98044-C97A-4D01-8F36-6CBE8F7E4C4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6889D3CA-89A3-45E3-A975-0F107039C92E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2226,10 +2226,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="D7" s="7">
-        <v>243257</v>
+        <v>221662</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>81</v>
@@ -2241,34 +2241,34 @@
         <v>83</v>
       </c>
       <c r="H7" s="7">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="I7" s="7">
-        <v>232268</v>
+        <v>216334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
-        <v>690</v>
+        <v>610</v>
       </c>
       <c r="N7" s="7">
-        <v>475525</v>
+        <v>437996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,49 +2277,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>29095</v>
+        <v>19589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>23534</v>
+        <v>13138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>52629</v>
+        <v>32727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>272352</v>
+        <v>241251</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2343,10 +2343,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>255802</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2358,10 +2358,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>765</v>
+        <v>655</v>
       </c>
       <c r="N9" s="7">
-        <v>528154</v>
+        <v>470723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2375,55 +2375,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="D10" s="7">
-        <v>221662</v>
+        <v>243257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="I10" s="7">
-        <v>216334</v>
+        <v>232268</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="N10" s="7">
-        <v>437996</v>
+        <v>475525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,28 +2432,28 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>19589</v>
+        <v>29095</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>13138</v>
+        <v>23534</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>110</v>
@@ -2462,10 +2462,10 @@
         <v>111</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="N11" s="7">
-        <v>32727</v>
+        <v>52629</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>112</v>
@@ -2483,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="D12" s="7">
-        <v>241251</v>
+        <v>272352</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2498,10 +2498,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>255802</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2513,10 +2513,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>655</v>
+        <v>765</v>
       </c>
       <c r="N12" s="7">
-        <v>470723</v>
+        <v>528154</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2699,7 +2699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C558989-85C7-44F4-87AC-B0277487A18B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B48C57-22EF-400B-B0AB-179BD0291AA6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2972,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D7" s="7">
-        <v>254086</v>
+        <v>243879</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>144</v>
@@ -2990,7 +2990,7 @@
         <v>337</v>
       </c>
       <c r="I7" s="7">
-        <v>241395</v>
+        <v>219677</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>147</v>
@@ -3002,10 +3002,10 @@
         <v>149</v>
       </c>
       <c r="M7" s="7">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="N7" s="7">
-        <v>495482</v>
+        <v>463556</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>150</v>
@@ -3023,10 +3023,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>27543</v>
+        <v>6173</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>153</v>
@@ -3038,10 +3038,10 @@
         <v>155</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>25826</v>
+        <v>14460</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>156</v>
@@ -3053,10 +3053,10 @@
         <v>158</v>
       </c>
       <c r="M8" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>53368</v>
+        <v>20633</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>159</v>
@@ -3074,10 +3074,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3089,10 +3089,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="I9" s="7">
-        <v>267221</v>
+        <v>234137</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3104,10 +3104,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="N9" s="7">
-        <v>548850</v>
+        <v>484189</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3121,16 +3121,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D10" s="7">
-        <v>243879</v>
+        <v>254086</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>162</v>
@@ -3145,7 +3145,7 @@
         <v>337</v>
       </c>
       <c r="I10" s="7">
-        <v>219677</v>
+        <v>241395</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>165</v>
@@ -3157,10 +3157,10 @@
         <v>167</v>
       </c>
       <c r="M10" s="7">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="N10" s="7">
-        <v>463556</v>
+        <v>495482</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>168</v>
@@ -3178,10 +3178,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>6173</v>
+        <v>27543</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>171</v>
@@ -3193,10 +3193,10 @@
         <v>173</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>14460</v>
+        <v>25826</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>174</v>
@@ -3208,10 +3208,10 @@
         <v>176</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>20633</v>
+        <v>53368</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>177</v>
@@ -3229,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3244,10 +3244,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="I12" s="7">
-        <v>234137</v>
+        <v>267221</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3259,10 +3259,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="N12" s="7">
-        <v>484189</v>
+        <v>548850</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3294,7 +3294,7 @@
         <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>929</v>
@@ -3342,7 +3342,7 @@
         <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>189</v>
@@ -3445,7 +3445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635E3319-D414-486E-A2AE-940893D39BAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989AD3C9-A5DF-4063-98E8-CFA5CFBDD950}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3718,49 +3718,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>446</v>
+        <v>257</v>
       </c>
       <c r="D7" s="7">
-        <v>377473</v>
+        <v>195713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>430</v>
+        <v>261</v>
       </c>
       <c r="I7" s="7">
-        <v>326291</v>
+        <v>184701</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>876</v>
+        <v>518</v>
       </c>
       <c r="N7" s="7">
-        <v>703764</v>
+        <v>380415</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,49 +3769,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>25237</v>
+        <v>8373</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13566</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M8" s="7">
         <v>32</v>
       </c>
-      <c r="I8" s="7">
-        <v>24517</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M8" s="7">
-        <v>65</v>
-      </c>
       <c r="N8" s="7">
-        <v>49755</v>
+        <v>21938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,10 +3820,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>204086</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3835,10 +3835,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3850,10 +3850,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>550</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>402353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3867,55 +3867,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>257</v>
+        <v>446</v>
       </c>
       <c r="D10" s="7">
-        <v>195713</v>
+        <v>377473</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>261</v>
+        <v>430</v>
       </c>
       <c r="I10" s="7">
-        <v>184701</v>
+        <v>326291</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>518</v>
+        <v>876</v>
       </c>
       <c r="N10" s="7">
-        <v>380415</v>
+        <v>703764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,28 +3924,28 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>8373</v>
+        <v>25237</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>13566</v>
+        <v>24517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>236</v>
@@ -3954,10 +3954,10 @@
         <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>21938</v>
+        <v>49755</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>238</v>
@@ -3975,10 +3975,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>204086</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3990,10 +3990,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -4005,10 +4005,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>550</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>402353</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP2002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E21831-293C-45F8-86BA-569881CCBDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B6D245-3D7F-4256-A32A-90536FE8F100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C3A2CA7A-53EC-41A2-AB61-E78CB4288089}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C81E4671-F91A-4FCD-B4ED-554216DC4BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="327">
   <si>
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -68,7 +68,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,745 +95,931 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,32%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>95,39%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
 </sst>
 </file>
@@ -826,7 +1030,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -922,39 +1126,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1006,7 +1210,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1117,13 +1321,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1132,6 +1329,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1196,19 +1400,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F370A4A5-F5C6-4A1F-B1FB-CDD7C6A10411}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13273980-F828-4809-B8BE-B46F1B03C21D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1325,10 +1549,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>186889</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1340,34 +1564,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>174792</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>361680</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,10 +1600,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>85108</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1391,34 +1615,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>70767</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>155875</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,49 +1651,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7">
-        <v>186889</v>
+        <v>85108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>174792</v>
+        <v>70767</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>546</v>
+        <v>236</v>
       </c>
       <c r="N6" s="7">
-        <v>361680</v>
+        <v>155875</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,10 +1704,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>205215</v>
+        <v>4102</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1495,10 +1719,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>194526</v>
+        <v>3593</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1510,10 +1734,10 @@
         <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>599</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>399741</v>
+        <v>7695</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -1531,10 +1755,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>12101</v>
+        <v>248929</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1546,10 +1770,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="I8" s="7">
-        <v>10120</v>
+        <v>249036</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1561,10 +1785,10 @@
         <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>748</v>
       </c>
       <c r="N8" s="7">
-        <v>22220</v>
+        <v>497965</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1582,49 +1806,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>217316</v>
+        <v>253031</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="I9" s="7">
-        <v>204646</v>
+        <v>252629</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>632</v>
+        <v>759</v>
       </c>
       <c r="N9" s="7">
-        <v>421961</v>
+        <v>505660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>243040</v>
+        <v>20494</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1650,10 +1874,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>341</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>229902</v>
+        <v>15163</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1665,19 +1889,19 @@
         <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>706</v>
+        <v>53</v>
       </c>
       <c r="N10" s="7">
-        <v>472942</v>
+        <v>35656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,49 +1910,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>182</v>
+      </c>
+      <c r="D11" s="7">
+        <v>121021</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>168</v>
+      </c>
+      <c r="I11" s="7">
+        <v>112385</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="7">
-        <v>37778</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="7">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
-        <v>35701</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M11" s="7">
-        <v>109</v>
+        <v>350</v>
       </c>
       <c r="N11" s="7">
-        <v>73479</v>
+        <v>233407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,102 +1961,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>421</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>280818</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>815</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>546421</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>956</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>635144</v>
+        <v>25283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>895</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>599219</v>
+        <v>27065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>1851</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>1234363</v>
+        <v>52348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,49 +2065,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>271</v>
+      </c>
+      <c r="D14" s="7">
+        <v>180086</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>246</v>
+      </c>
+      <c r="I14" s="7">
+        <v>167032</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="7">
-        <v>49879</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="7">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45821</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>142</v>
+        <v>517</v>
       </c>
       <c r="N14" s="7">
-        <v>95700</v>
+        <v>347118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,55 +2116,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>309</v>
+      </c>
+      <c r="D15" s="7">
+        <v>205369</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>595</v>
+      </c>
+      <c r="N15" s="7">
+        <v>399466</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7">
+        <v>49879</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>68</v>
+      </c>
+      <c r="I16" s="7">
+        <v>45821</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>142</v>
+      </c>
+      <c r="N16" s="7">
+        <v>95700</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>956</v>
+      </c>
+      <c r="D17" s="7">
+        <v>635144</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>895</v>
+      </c>
+      <c r="I17" s="7">
+        <v>599219</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1851</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1234363</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1030</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>685023</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>963</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>645040</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1993</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1330063</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1953,8 +2338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6889D3CA-89A3-45E3-A975-0F107039C92E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D2BCE-1043-4699-B7BC-F32E508F1B20}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1970,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2071,49 +2456,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>189097</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>177617</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>366714</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,49 +2507,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>95923</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>98870</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>194793</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,49 +2558,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7">
-        <v>189097</v>
+        <v>95923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="I6" s="7">
-        <v>177617</v>
+        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>366714</v>
+        <v>194793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,49 +2611,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>221662</v>
+        <v>11318</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>216334</v>
+        <v>5896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>610</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>437996</v>
+        <v>17214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,49 +2662,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="D8" s="7">
-        <v>19589</v>
+        <v>257673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>13138</v>
+        <v>230354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>692</v>
       </c>
       <c r="N8" s="7">
-        <v>32727</v>
+        <v>488027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,49 +2713,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>241251</v>
+        <v>268991</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>655</v>
+        <v>714</v>
       </c>
       <c r="N9" s="7">
-        <v>470723</v>
+        <v>505241</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,49 +2766,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>243257</v>
+        <v>17326</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>232268</v>
+        <v>13700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>690</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>475525</v>
+        <v>31026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2817,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>29095</v>
+        <v>140505</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>23534</v>
+        <v>143343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="N11" s="7">
-        <v>52629</v>
+        <v>283848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,102 +2868,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>272352</v>
+        <v>157831</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>255802</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>765</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>528154</v>
+        <v>314874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>936</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>654015</v>
+        <v>20039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>901</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>626219</v>
+        <v>17076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>1837</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>1280235</v>
+        <v>37115</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,49 +2972,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>48684</v>
+        <v>159916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>36672</v>
+        <v>153652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>120</v>
+        <v>453</v>
       </c>
       <c r="N14" s="7">
-        <v>85356</v>
+        <v>313568</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,55 +3023,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>242</v>
+      </c>
+      <c r="I15" s="7">
+        <v>170728</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>507</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350683</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7">
+        <v>48684</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
+        <v>53</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36672</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="7">
+        <v>120</v>
+      </c>
+      <c r="N16" s="7">
+        <v>85356</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>936</v>
+      </c>
+      <c r="D17" s="7">
+        <v>654015</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="7">
+        <v>901</v>
+      </c>
+      <c r="I17" s="7">
+        <v>626219</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1837</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1280235</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1003</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>702699</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>954</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>662891</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1957</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1365591</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2699,8 +3245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B48C57-22EF-400B-B0AB-179BD0291AA6}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C65537-6548-4416-968F-516CE401C979}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2716,7 +3262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2817,49 +3363,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>169214</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>156825</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>511</v>
-      </c>
-      <c r="N4" s="7">
-        <v>326039</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,49 +3414,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>80214</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="I5" s="7">
-        <v>648</v>
+        <v>87859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>263</v>
+      </c>
+      <c r="N5" s="7">
+        <v>168074</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>648</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,49 +3465,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>169214</v>
+        <v>80214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>157473</v>
+        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>512</v>
+        <v>263</v>
       </c>
       <c r="N6" s="7">
-        <v>326687</v>
+        <v>168074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,49 +3518,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>243879</v>
+        <v>2090</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>337</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>219677</v>
+        <v>4740</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>691</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>463556</v>
+        <v>6830</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,49 +3569,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>6173</v>
+        <v>255971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>14460</v>
+        <v>204581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="N8" s="7">
-        <v>20633</v>
+        <v>460552</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,49 +3620,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="I9" s="7">
-        <v>234137</v>
+        <v>209321</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="N9" s="7">
-        <v>484189</v>
+        <v>467382</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,49 +3673,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>254086</v>
+        <v>13484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>337</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>241395</v>
+        <v>19757</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>681</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>495482</v>
+        <v>33242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,49 +3724,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D11" s="7">
-        <v>27543</v>
+        <v>175088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="I11" s="7">
-        <v>25826</v>
+        <v>169142</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="N11" s="7">
-        <v>53368</v>
+        <v>344229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,102 +3775,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267221</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>548850</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>954</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>667179</v>
+        <v>18142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>929</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>617898</v>
+        <v>16436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
-        <v>1883</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>1285077</v>
+        <v>34578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,49 +3879,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>33716</v>
+        <v>155906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>40933</v>
+        <v>156315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
-        <v>105</v>
+        <v>432</v>
       </c>
       <c r="N14" s="7">
-        <v>74649</v>
+        <v>312221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,55 +3930,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>245</v>
+      </c>
+      <c r="I15" s="7">
+        <v>172751</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>480</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346799</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33716</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
+        <v>59</v>
+      </c>
+      <c r="I16" s="7">
+        <v>40933</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="7">
+        <v>105</v>
+      </c>
+      <c r="N16" s="7">
+        <v>74649</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>954</v>
+      </c>
+      <c r="D17" s="7">
+        <v>667179</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="7">
+        <v>929</v>
+      </c>
+      <c r="I17" s="7">
+        <v>617898</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1883</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1285077</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>700895</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>988</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>658831</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1988</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1359726</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3445,8 +4152,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989AD3C9-A5DF-4063-98E8-CFA5CFBDD950}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F1FE5C-E08B-4A40-8884-8C985DC5FA8C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3462,7 +4169,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3563,49 +4270,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>104019</v>
+        <v>678</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>176</v>
-      </c>
-      <c r="I4" s="7">
-        <v>93723</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>678</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>372</v>
-      </c>
-      <c r="N4" s="7">
-        <v>197742</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,49 +4321,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>1047</v>
+        <v>44953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7">
-        <v>781</v>
+        <v>48229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>175</v>
+      </c>
+      <c r="N5" s="7">
+        <v>93182</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1829</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,49 +4372,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7">
-        <v>105066</v>
+        <v>45631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>94504</v>
+        <v>48229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>199571</v>
+        <v>93860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,49 +4425,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6384</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="7">
-        <v>195713</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5344</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="7">
-        <v>184701</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
-        <v>518</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>380415</v>
+        <v>11728</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,49 +4476,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="D8" s="7">
-        <v>8373</v>
+        <v>167945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="I8" s="7">
-        <v>13566</v>
+        <v>153261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>513</v>
       </c>
       <c r="N8" s="7">
-        <v>21938</v>
+        <v>321206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,49 +4527,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>204086</v>
+        <v>174329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>402353</v>
+        <v>332934</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,49 +4580,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>446</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>377473</v>
+        <v>9698</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
-        <v>430</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>326291</v>
+        <v>16215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
-        <v>876</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>703764</v>
+        <v>25913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,49 +4631,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>25237</v>
+        <v>192780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>24517</v>
+        <v>159898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="N11" s="7">
-        <v>49755</v>
+        <v>352678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,102 +4682,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>899</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>677206</v>
+        <v>17897</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
-        <v>867</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>604716</v>
+        <v>17305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
-        <v>1766</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>1281920</v>
+        <v>35202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,49 +4786,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>34657</v>
+        <v>271527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="I14" s="7">
-        <v>38864</v>
+        <v>243328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
-        <v>101</v>
+        <v>638</v>
       </c>
       <c r="N14" s="7">
-        <v>73522</v>
+        <v>514855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,55 +4837,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7">
+        <v>34657</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="7">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>38864</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="7">
+        <v>101</v>
+      </c>
+      <c r="N16" s="7">
+        <v>73522</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>899</v>
+      </c>
+      <c r="D17" s="7">
+        <v>677206</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H17" s="7">
+        <v>867</v>
+      </c>
+      <c r="I17" s="7">
+        <v>604716</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1766</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1281920</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>946</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>711863</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>921</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>643580</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1867</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1355442</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP2002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B6D245-3D7F-4256-A32A-90536FE8F100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD70B8D-B975-4C47-A704-C3870F0A3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C81E4671-F91A-4FCD-B4ED-554216DC4BA9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B2744B9-AD44-4489-BD80-B95465DBD5DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
   <si>
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -113,28 +113,25 @@
     <t>1,62%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -143,25 +140,22 @@
     <t>96,5%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>97,21%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -170,55 +164,55 @@
     <t>14,48%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>85,52%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -227,19 +221,19 @@
     <t>12,31%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>13,1%</t>
@@ -248,31 +242,31 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>16,15%</t>
+    <t>16,36%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>83,85%</t>
+    <t>83,64%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -281,55 +275,49 @@
     <t>7,28%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>5,82%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>94,18%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -359,208 +347,214 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>13,07%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>86,93%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,22%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>95,78%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -584,28 +578,28 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,33%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -614,34 +608,28 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>14,56%</t>
@@ -650,376 +638,352 @@
     <t>8,81%</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>95,57%</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13273980-F828-4809-B8BE-B46F1B03C21D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8BA0C-6282-4DF4-83FA-DE2F07E4F196}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1743,10 +1707,10 @@
         <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1725,13 @@
         <v>248929</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -1776,13 +1740,13 @@
         <v>249036</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>748</v>
@@ -1791,13 +1755,13 @@
         <v>497965</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1817,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1865,13 +1829,13 @@
         <v>20494</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -1880,13 +1844,13 @@
         <v>15163</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -1895,13 +1859,13 @@
         <v>35656</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1880,13 @@
         <v>121021</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -1931,13 +1895,13 @@
         <v>112385</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>350</v>
@@ -1946,13 +1910,13 @@
         <v>233407</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,7 +1972,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2020,13 +1984,13 @@
         <v>25283</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2035,13 +1999,13 @@
         <v>27065</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -2050,13 +2014,13 @@
         <v>52348</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2035,13 @@
         <v>180086</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -2086,13 +2050,13 @@
         <v>167032</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>517</v>
@@ -2101,13 +2065,13 @@
         <v>347118</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2139,13 @@
         <v>49879</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -2190,13 +2154,13 @@
         <v>45821</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2205,13 +2169,13 @@
         <v>95700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2190,13 @@
         <v>635144</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>895</v>
@@ -2241,13 +2205,13 @@
         <v>599219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>1851</v>
@@ -2256,13 +2220,13 @@
         <v>1234363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2282,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D2BCE-1043-4699-B7BC-F32E508F1B20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32227424-F87B-4A84-9F43-CFB5C851C9F8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2468,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2483,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2498,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2531,7 +2495,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2546,7 +2510,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2617,13 +2581,13 @@
         <v>11318</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2632,13 +2596,13 @@
         <v>5896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -2647,13 +2611,13 @@
         <v>17214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2632,13 @@
         <v>257673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
@@ -2683,13 +2647,13 @@
         <v>230354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -2698,13 +2662,13 @@
         <v>488027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2724,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2772,13 +2736,13 @@
         <v>17326</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2787,13 +2751,13 @@
         <v>13700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2802,13 +2766,13 @@
         <v>31026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2787,13 @@
         <v>140505</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
@@ -2838,13 +2802,13 @@
         <v>143343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -2853,13 +2817,13 @@
         <v>283848</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2879,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2927,13 +2891,13 @@
         <v>20039</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2942,13 +2906,13 @@
         <v>17076</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -2957,13 +2921,13 @@
         <v>37115</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2942,13 @@
         <v>159916</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -2993,13 +2957,13 @@
         <v>153652</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -3008,13 +2972,13 @@
         <v>313568</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3046,13 @@
         <v>48684</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -3097,13 +3061,13 @@
         <v>36672</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3112,13 +3076,13 @@
         <v>85356</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3097,13 @@
         <v>654015</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -3148,13 +3112,13 @@
         <v>626219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>1837</v>
@@ -3163,13 +3127,13 @@
         <v>1280235</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,7 +3189,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C65537-6548-4416-968F-516CE401C979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE14AEE-64D3-4FB5-B2CA-2541D889C789}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3262,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3375,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3390,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3405,7 +3369,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,7 +3387,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3438,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3453,7 +3417,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3527,10 +3491,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3539,13 +3503,13 @@
         <v>4740</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3554,13 +3518,13 @@
         <v>6830</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,10 +3542,10 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>323</v>
@@ -3590,13 +3554,13 @@
         <v>204581</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -3605,13 +3569,13 @@
         <v>460552</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3631,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3679,13 +3643,13 @@
         <v>13484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -3694,13 +3658,13 @@
         <v>19757</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3709,13 +3673,13 @@
         <v>33242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3694,13 @@
         <v>175088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -3745,13 +3709,13 @@
         <v>169142</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>488</v>
@@ -3760,13 +3724,13 @@
         <v>344229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3786,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3834,13 +3798,13 @@
         <v>18142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3849,13 +3813,13 @@
         <v>16436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3864,13 +3828,13 @@
         <v>34578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3849,13 @@
         <v>155906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -3900,13 +3864,13 @@
         <v>156315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>432</v>
@@ -3915,13 +3879,13 @@
         <v>312221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3953,13 @@
         <v>33716</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -4004,13 +3968,13 @@
         <v>40933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -4019,13 +3983,13 @@
         <v>74649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4004,13 @@
         <v>667179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -4055,13 +4019,13 @@
         <v>617898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>1883</v>
@@ -4070,13 +4034,13 @@
         <v>1285077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4096,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F1FE5C-E08B-4A40-8884-8C985DC5FA8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C6CF3D-0547-430D-B032-055F4DFEC6C8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4169,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4282,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4297,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4306,13 +4270,13 @@
         <v>678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4294,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4345,7 +4309,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4357,10 +4321,10 @@
         <v>93182</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4431,13 +4395,13 @@
         <v>6384</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4446,13 +4410,13 @@
         <v>5344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4461,13 +4425,13 @@
         <v>11728</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4446,13 @@
         <v>167945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>248</v>
@@ -4497,13 +4461,13 @@
         <v>153261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>513</v>
@@ -4512,13 +4476,13 @@
         <v>321206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,7 +4538,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4586,13 +4550,13 @@
         <v>9698</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4601,13 +4565,13 @@
         <v>16215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4616,13 +4580,13 @@
         <v>25913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4601,13 @@
         <v>192780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4652,13 +4616,13 @@
         <v>159898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -4667,13 +4631,13 @@
         <v>352678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,7 +4693,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4741,13 +4705,13 @@
         <v>17897</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4756,13 +4720,13 @@
         <v>17305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -4771,13 +4735,13 @@
         <v>35202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4756,13 @@
         <v>271527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
@@ -4807,13 +4771,13 @@
         <v>243328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -4822,13 +4786,13 @@
         <v>514855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4860,13 @@
         <v>34657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -4911,13 +4875,13 @@
         <v>38864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4926,13 +4890,13 @@
         <v>73522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4911,13 @@
         <v>677206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -4962,13 +4926,13 @@
         <v>604716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>1766</v>
@@ -4977,13 +4941,13 @@
         <v>1281920</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,7 +5003,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD70B8D-B975-4C47-A704-C3870F0A3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B5A33A-FB60-4E85-8752-1FB7B55B6729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B2744B9-AD44-4489-BD80-B95465DBD5DF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4EB50779-DEE5-4647-842A-27E00BEC6D5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="327">
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -95,592 +95,607 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,21%</t>
+    <t>97,37%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
     <t>14,48%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>85,52%</t>
   </si>
   <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>8,95%</t>
+    <t>9,29%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>13,94%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>9,97%</t>
@@ -689,298 +704,319 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>12,84%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>87,16%</t>
+    <t>86,96%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -1395,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8BA0C-6282-4DF4-83FA-DE2F07E4F196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F25C62-16FB-4F76-BEDB-3EF59331B87E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1564,10 +1600,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>85108</v>
+        <v>70767</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1579,10 +1615,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I5" s="7">
-        <v>70767</v>
+        <v>85108</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1615,25 +1651,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>70767</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>128</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>85108</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
-      <c r="I6" s="7">
-        <v>70767</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1668,10 +1704,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>4102</v>
+        <v>3593</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1683,10 +1719,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>3593</v>
+        <v>4102</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1719,10 +1755,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D8" s="7">
-        <v>248929</v>
+        <v>249036</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1734,10 +1770,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I8" s="7">
-        <v>249036</v>
+        <v>248929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>34</v>
@@ -1770,25 +1806,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>378</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252629</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>381</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253031</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>378</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252629</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1823,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>20494</v>
+        <v>15163</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
@@ -1838,10 +1874,10 @@
         <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>15163</v>
+        <v>20494</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>43</v>
@@ -1874,10 +1910,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7">
-        <v>121021</v>
+        <v>112385</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -1889,10 +1925,10 @@
         <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="I11" s="7">
-        <v>112385</v>
+        <v>121021</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>52</v>
@@ -1925,25 +1961,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1978,10 +2014,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>25283</v>
+        <v>27065</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>59</v>
@@ -1993,10 +2029,10 @@
         <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>27065</v>
+        <v>25283</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>62</v>
@@ -2029,10 +2065,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>180086</v>
+        <v>167032</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -2044,10 +2080,10 @@
         <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="I14" s="7">
-        <v>167032</v>
+        <v>180086</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>71</v>
@@ -2080,25 +2116,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>309</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>205369</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2133,10 +2169,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>49879</v>
+        <v>45821</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>77</v>
@@ -2145,22 +2181,22 @@
         <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>45821</v>
+        <v>49879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2169,13 +2205,13 @@
         <v>95700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,34 +2220,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>895</v>
+      </c>
+      <c r="D17" s="7">
+        <v>599219</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7">
         <v>956</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>635144</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>895</v>
-      </c>
-      <c r="I17" s="7">
-        <v>599219</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>1851</v>
@@ -2220,13 +2256,13 @@
         <v>1234363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,25 +2271,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>963</v>
+      </c>
+      <c r="D18" s="7">
+        <v>645040</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1030</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>685023</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>963</v>
-      </c>
-      <c r="I18" s="7">
-        <v>645040</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2282,7 +2318,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32227424-F87B-4A84-9F43-CFB5C851C9F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73804407-A003-4575-82FB-70621DAF6CA4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2319,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2432,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2447,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2462,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,31 +2507,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>95923</v>
+        <v>98870</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I5" s="7">
-        <v>98870</v>
+        <v>95923</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2510,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2522,25 +2558,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7">
+        <v>98870</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>137</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>95923</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>149</v>
-      </c>
-      <c r="I6" s="7">
-        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2575,34 +2611,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5896</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11318</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5896</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -2611,13 +2647,13 @@
         <v>17214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,34 +2662,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>230354</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="7">
         <v>360</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>257673</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>230354</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -2662,13 +2698,13 @@
         <v>488027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,25 +2713,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2730,34 +2766,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
+        <v>13700</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="7">
         <v>24</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>17326</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13700</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2766,13 +2802,13 @@
         <v>31026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,31 +2820,31 @@
         <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>140505</v>
+        <v>143343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>143343</v>
+        <v>140505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -2817,13 +2853,13 @@
         <v>283848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,25 +2868,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>227</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>157831</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2885,34 +2921,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>17076</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>20039</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17076</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -2921,13 +2957,13 @@
         <v>37115</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2972,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>159916</v>
+        <v>153652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>147</v>
@@ -2951,10 +2987,10 @@
         <v>148</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I14" s="7">
-        <v>153652</v>
+        <v>159916</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>149</v>
@@ -2987,25 +3023,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>242</v>
+      </c>
+      <c r="D15" s="7">
+        <v>170728</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>265</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>242</v>
-      </c>
-      <c r="I15" s="7">
-        <v>170728</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3040,10 +3076,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>48684</v>
+        <v>36672</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>155</v>
@@ -3055,10 +3091,10 @@
         <v>157</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>36672</v>
+        <v>48684</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>158</v>
@@ -3067,7 +3103,7 @@
         <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3076,13 +3112,13 @@
         <v>85356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,34 +3127,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>901</v>
+      </c>
+      <c r="D17" s="7">
+        <v>626219</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="7">
         <v>936</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>654015</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="7">
-        <v>901</v>
-      </c>
-      <c r="I17" s="7">
-        <v>626219</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>1837</v>
@@ -3127,13 +3163,13 @@
         <v>1280235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,25 +3178,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>954</v>
+      </c>
+      <c r="D18" s="7">
+        <v>662891</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1003</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>702699</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>954</v>
-      </c>
-      <c r="I18" s="7">
-        <v>662891</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3189,7 +3225,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE14AEE-64D3-4FB5-B2CA-2541D889C789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592F6157-4357-4ABB-A541-EB7124704D44}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3226,7 +3262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3339,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3354,7 +3390,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3369,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,31 +3414,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D5" s="7">
-        <v>80214</v>
+        <v>87859</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7">
-        <v>87859</v>
+        <v>80214</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3417,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3429,25 +3465,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7">
+        <v>87859</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>122</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>80214</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>141</v>
-      </c>
-      <c r="I6" s="7">
-        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3482,34 +3518,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4740</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2090</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4740</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3518,13 +3554,13 @@
         <v>6830</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,34 +3569,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>323</v>
+      </c>
+      <c r="D8" s="7">
+        <v>204581</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="7">
         <v>377</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>255971</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="7">
-        <v>323</v>
-      </c>
-      <c r="I8" s="7">
-        <v>204581</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -3569,13 +3605,13 @@
         <v>460552</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,25 +3620,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>330</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209321</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>330</v>
-      </c>
-      <c r="I9" s="7">
-        <v>209321</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3637,34 +3673,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
+        <v>19757</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
         <v>13484</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19757</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3673,13 +3709,13 @@
         <v>33242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,31 +3727,31 @@
         <v>244</v>
       </c>
       <c r="D11" s="7">
-        <v>175088</v>
+        <v>169142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
       </c>
       <c r="I11" s="7">
-        <v>169142</v>
+        <v>175088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>488</v>
@@ -3724,13 +3760,13 @@
         <v>344229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,25 +3775,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3795,31 +3831,31 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>18142</v>
+        <v>16436</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>16436</v>
+        <v>18142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3828,13 +3864,13 @@
         <v>34578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,34 +3879,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>221</v>
+      </c>
+      <c r="D14" s="7">
+        <v>156315</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="7">
         <v>211</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>155906</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" s="7">
-        <v>221</v>
-      </c>
-      <c r="I14" s="7">
-        <v>156315</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>432</v>
@@ -3879,13 +3915,13 @@
         <v>312221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,25 +3930,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>245</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172751</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>245</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172751</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3947,34 +3983,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7">
+        <v>40933</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
         <v>46</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>33716</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="7">
-        <v>59</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40933</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3983,13 +4019,13 @@
         <v>74649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,34 +4034,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>929</v>
+      </c>
+      <c r="D17" s="7">
+        <v>617898</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="7">
         <v>954</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>667179</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="7">
-        <v>929</v>
-      </c>
-      <c r="I17" s="7">
-        <v>617898</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>1883</v>
@@ -4034,13 +4070,13 @@
         <v>1285077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,25 +4085,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>988</v>
+      </c>
+      <c r="D18" s="7">
+        <v>658831</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>700895</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>988</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658831</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4096,7 +4132,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4116,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C6CF3D-0547-430D-B032-055F4DFEC6C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625850F5-4E64-4F06-BE1D-378EFDB791D8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4133,7 +4169,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4234,49 +4270,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>678</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>707</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,46 +4321,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48405</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>86</v>
       </c>
-      <c r="D5" s="7">
-        <v>44953</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>47222</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>89</v>
-      </c>
-      <c r="I5" s="7">
-        <v>48229</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>93182</v>
+        <v>95627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4336,25 +4372,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48405</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>87</v>
       </c>
-      <c r="D6" s="7">
-        <v>45631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>89</v>
-      </c>
       <c r="I6" s="7">
-        <v>48229</v>
+        <v>47929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4369,7 +4405,7 @@
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>93860</v>
+        <v>96334</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4392,46 +4428,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>6384</v>
+        <v>5334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>5344</v>
+        <v>6889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>11728</v>
+        <v>12223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,49 +4476,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>248</v>
+      </c>
+      <c r="D8" s="7">
+        <v>153802</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D8" s="7">
-        <v>167945</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="I8" s="7">
-        <v>153261</v>
+        <v>174674</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M8" s="7">
         <v>513</v>
       </c>
       <c r="N8" s="7">
-        <v>321206</v>
+        <v>328476</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,25 +4527,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159136</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>274</v>
       </c>
-      <c r="D9" s="7">
-        <v>174329</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>158605</v>
+        <v>181563</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4524,7 +4560,7 @@
         <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>332934</v>
+        <v>340699</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4544,49 +4580,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15979</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
-        <v>9698</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="7">
-        <v>22</v>
-      </c>
       <c r="I10" s="7">
-        <v>16215</v>
+        <v>10546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>25913</v>
+        <v>26525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,49 +4631,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>211</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157093</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="7">
         <v>229</v>
       </c>
-      <c r="D11" s="7">
-        <v>192780</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="7">
-        <v>211</v>
-      </c>
       <c r="I11" s="7">
-        <v>159898</v>
+        <v>201944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
       </c>
       <c r="N11" s="7">
-        <v>352678</v>
+        <v>359038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,25 +4682,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4679,7 +4715,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4702,46 +4738,46 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>17897</v>
+        <v>17536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>17305</v>
+        <v>19375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>35202</v>
+        <v>36911</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,46 +4789,46 @@
         <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>271527</v>
+        <v>257922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
       </c>
       <c r="I14" s="7">
-        <v>243328</v>
+        <v>286108</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
       </c>
       <c r="N14" s="7">
-        <v>514855</v>
+        <v>544029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,7 +4840,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4819,7 +4855,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4834,7 +4870,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4854,49 +4890,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38849</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" s="7">
         <v>47</v>
       </c>
-      <c r="D16" s="7">
-        <v>34657</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" s="7">
-        <v>54</v>
-      </c>
       <c r="I16" s="7">
-        <v>38864</v>
+        <v>37518</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
       </c>
       <c r="N16" s="7">
-        <v>73522</v>
+        <v>76367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +4941,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>867</v>
+      </c>
+      <c r="D17" s="7">
+        <v>617222</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="7">
         <v>899</v>
       </c>
-      <c r="D17" s="7">
-        <v>677206</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="7">
-        <v>867</v>
-      </c>
       <c r="I17" s="7">
-        <v>604716</v>
+        <v>709947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>1766</v>
       </c>
       <c r="N17" s="7">
-        <v>1281920</v>
+        <v>1327169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,25 +4992,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>921</v>
+      </c>
+      <c r="D18" s="7">
+        <v>656071</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>946</v>
       </c>
-      <c r="D18" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>921</v>
-      </c>
       <c r="I18" s="7">
-        <v>643580</v>
+        <v>747465</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4989,7 +5025,7 @@
         <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>1355442</v>
+        <v>1403536</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5003,7 +5039,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
